--- a/main/config/index.xlsx
+++ b/main/config/index.xlsx
@@ -15,69 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
   <si>
     <t>标签ID</t>
-  </si>
-  <si>
-    <t>06000034</t>
-  </si>
-  <si>
-    <t>06000035</t>
-  </si>
-  <si>
-    <t>06000036</t>
-  </si>
-  <si>
-    <t>06000037</t>
-  </si>
-  <si>
-    <t>06000038</t>
-  </si>
-  <si>
-    <t>06000039</t>
-  </si>
-  <si>
-    <t>06000040</t>
-  </si>
-  <si>
-    <t>06000041</t>
-  </si>
-  <si>
-    <t>06000042</t>
-  </si>
-  <si>
-    <t>06000043</t>
-  </si>
-  <si>
-    <t>06000044</t>
-  </si>
-  <si>
-    <t>06000045</t>
-  </si>
-  <si>
-    <t>06000046</t>
-  </si>
-  <si>
-    <t>06000047</t>
-  </si>
-  <si>
-    <t>06000048</t>
-  </si>
-  <si>
-    <t>06000049</t>
-  </si>
-  <si>
-    <t>06000050</t>
-  </si>
-  <si>
-    <t>06000051</t>
-  </si>
-  <si>
-    <t>06000052</t>
-  </si>
-  <si>
-    <t>06000053</t>
   </si>
   <si>
     <t>标签id需为文本，请按格式排序</t>
@@ -1032,10 +972,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="A21" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1047,106 +987,6 @@
     <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1171,7 +1011,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
